--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387627.4769879546</v>
+        <v>-390116.2160174702</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.6097642744076</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>225.8530281651441</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>72.97362349455889</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>104.9250991261867</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>95.8151416376415</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>339.0216620013221</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>203.8751166288491</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>40.04537273892291</v>
+        <v>82.57906258117971</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>105.4771979831561</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>162.944784488459</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>141.4867229439996</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>75.97812655527368</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.7063133373728</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.05096575280812</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>35.41770597126713</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>24.06466448613694</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>259.3760398746372</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>22.04658882052573</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>173.8476477102227</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>129.1078928223853</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>86.24032515900413</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>81.07546534818459</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>226.1250465656109</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.154071768027</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C2" t="n">
-        <v>1190.154071768027</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2306.900338039674</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1933.434579778594</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y2" t="n">
-        <v>1543.295247802782</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.6952191369613</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>510.7590362090544</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1821.309599476183</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1599.542984045709</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1599.542984045709</v>
+        <v>1830.511576737339</v>
       </c>
       <c r="V4" t="n">
-        <v>1599.542984045709</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.125814008748</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.136263110731</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>861.3436839672011</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D5" t="n">
-        <v>1023.012981614817</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1023.012981614817</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>612.0270768252092</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4668,28 +4668,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>604.8580214762837</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>604.8580214762837</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,22 +4720,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1886.844676635035</v>
+        <v>1562.365012146403</v>
       </c>
       <c r="U7" t="n">
-        <v>1597.741809760679</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="V7" t="n">
-        <v>1343.057321554792</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="W7" t="n">
-        <v>1053.640151517831</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X7" t="n">
-        <v>825.6506006198139</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>604.8580214762837</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.547110979148</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1329.547110979148</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>943.7588583809036</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4902,7 +4902,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4911,16 +4911,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>822.6111008985771</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C10" t="n">
-        <v>653.6749179706702</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>503.5582785583345</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>355.6451849759413</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4990,22 +4990,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1071.910120335304</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>782.492950298343</v>
       </c>
       <c r="X10" t="n">
-        <v>1004.259565728817</v>
+        <v>554.5033994003256</v>
       </c>
       <c r="Y10" t="n">
-        <v>1004.259565728817</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5039,22 +5039,22 @@
         <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5124,19 +5124,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5464,22 +5464,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856848</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>639.9526724577779</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>489.8360330454422</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>341.922939463049</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235163</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602302</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396415</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359455</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359455</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159245</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>719.5738700011939</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1122.014913974964</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.2223348314336</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>365.9405071576781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>365.9405071576781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>424.993875127789</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>424.993875127789</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>257.797775842669</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6929,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7163,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1459.976715909645</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1170.559545872684</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>942.5699949746667</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>721.7774158311365</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311324</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.12407738907299</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>283.4881051894435</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>296.7574771839102</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012035</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016429</v>
+        <v>65.3199726642718</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.5336875992867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856421</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>121.3563835367943</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>26.80843451460697</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>203.6630665685114</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>36.41624546988356</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>59.21924749803927</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>26.01259675821714</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -26317,22 +26317,22 @@
         <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
         <v>282501.3098915023</v>
       </c>
       <c r="F2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="G2" t="n">
         <v>282501.3098915023</v>
       </c>
-      <c r="G2" t="n">
-        <v>282501.3098915022</v>
-      </c>
       <c r="H2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915021</v>
@@ -26350,7 +26350,7 @@
         <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="P2" t="n">
         <v>287364.6194524992</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551165</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33157.25995071526</v>
+        <v>33157.25995071522</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26430,25 +26430,25 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1218293.02030466</v>
+        <v>-1218548.88954407</v>
       </c>
       <c r="C6" t="n">
-        <v>87856.72393793652</v>
+        <v>87856.72393793619</v>
       </c>
       <c r="D6" t="n">
-        <v>87856.72393793648</v>
+        <v>87856.72393793664</v>
       </c>
       <c r="E6" t="n">
-        <v>-156420.6019215784</v>
+        <v>-156455.3398470139</v>
       </c>
       <c r="F6" t="n">
-        <v>168991.859885777</v>
+        <v>168957.1219603412</v>
       </c>
       <c r="G6" t="n">
-        <v>168991.8598857771</v>
+        <v>168957.1219603413</v>
       </c>
       <c r="H6" t="n">
-        <v>168991.8598857769</v>
+        <v>168957.1219603412</v>
       </c>
       <c r="I6" t="n">
-        <v>168991.8598857769</v>
+        <v>168957.1219603413</v>
       </c>
       <c r="J6" t="n">
-        <v>-48539.3425115006</v>
+        <v>-48574.08043693626</v>
       </c>
       <c r="K6" t="n">
-        <v>168991.8598857769</v>
+        <v>168957.1219603412</v>
       </c>
       <c r="L6" t="n">
-        <v>168991.8598857768</v>
+        <v>168957.121960341</v>
       </c>
       <c r="M6" t="n">
-        <v>83936.83195026498</v>
+        <v>83902.09402482954</v>
       </c>
       <c r="N6" t="n">
-        <v>168991.8598857769</v>
+        <v>168957.1219603412</v>
       </c>
       <c r="O6" t="n">
-        <v>144395.0061600404</v>
+        <v>144395.0061600405</v>
       </c>
       <c r="P6" t="n">
         <v>163822.7241536722</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>123.3879405522679</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>123.3879405522689</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>84.84392620525516</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>190.3966965679714</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15.6613796193609</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>207.0466090246044</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>179.5035765372463</v>
+        <v>136.9698866949895</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>277.2566436803244</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>243.9312612532525</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>3.934325078931693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>142.6065267968211</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28293,10 +28293,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S13" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31844,22 +31844,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>546.2057666753343</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066232</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
